--- a/UnityProject/Assets/Resources/Test.xlsx
+++ b/UnityProject/Assets/Resources/Test.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzbswh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzbswh\Desktop\UnityExcelTool\UnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274B2660-B8AE-449B-8052-74559A22C260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A52A1D5-72E0-4127-96C1-6440C1B5EBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1665" windowWidth="27630" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="1485" windowWidth="27630" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s_ttt" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +212,22 @@
   </si>
   <si>
     <t>dsadas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,12 +251,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,8 +283,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,197 +567,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="30.125" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="8" max="8" width="45.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P2" t="s">
         <v>0</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q3" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R3" t="s">
         <v>42</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S3" t="s">
         <v>43</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T3" t="s">
         <v>44</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="I4">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="M4">
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="N4">
+      <c r="O5">
         <v>6</v>
       </c>
-      <c r="O4">
+      <c r="P5">
         <v>7</v>
       </c>
-      <c r="R4">
+      <c r="S5">
         <v>3.444</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T5" t="s">
         <v>46</v>
       </c>
-      <c r="T4">
+      <c r="U5">
         <v>34.22</v>
       </c>
     </row>
@@ -737,18 +784,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3BB922-D8FE-40DD-8B00-2FC089520847}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/UnityProject/Assets/Resources/Test.xlsx
+++ b/UnityProject/Assets/Resources/Test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzbswh\Desktop\UnityExcelTool\UnityProject\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ExcelTest\UnityExcelTool\UnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A52A1D5-72E0-4127-96C1-6440C1B5EBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD2E63E-87AF-4660-A718-E962F0B59BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1485" windowWidth="27630" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="2040" windowWidth="27645" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s_ttt" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,7 +571,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,4 +785,225 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D8AE09-B559-4C8F-8D94-FD8F8DF8FAE1}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="45.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>3.444</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5">
+        <v>34.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>